--- a/dtpu_configurations/only_integer64/30mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer64/30mhz/mxu_5x5/power.xlsx
@@ -128,7 +128,7 @@
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
     <col min="6" max="6" width="10.3125" customWidth="true"/>
-    <col min="7" max="7" width="8.75" customWidth="true"/>
+    <col min="7" max="7" width="10.3125" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
     <col min="10" max="10" width="11.25" customWidth="true"/>
@@ -175,34 +175,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.012132697738707066</v>
+        <v>0.02843075431883335</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005050357896834612</v>
+        <v>0.0077955471351742744</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004076539538800716</v>
+        <v>0.004497642163187265</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0037934896536171436</v>
+        <v>0.002616662997752428</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.1068827006965876E-5</v>
+        <v>3.536681703053546E-8</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0011074839858338237</v>
+        <v>7.905749953351915E-4</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12622031569480896</v>
+        <v>0.12738706171512604</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4105759859085083</v>
+        <v>1.4296834468841553</v>
       </c>
     </row>
   </sheetData>
